--- a/formats/excel/Formats RSA ANO 14.xlsx
+++ b/formats/excel/Formats RSA ANO 14.xlsx
@@ -130,6 +130,9 @@
     <t>NOSEJ</t>
   </si>
   <si>
+    <t>i</t>
+  </si>
+  <si>
     <t>N° Séjour</t>
   </si>
   <si>
@@ -374,9 +377,6 @@
   </si>
   <si>
     <t>NBEVEN</t>
-  </si>
-  <si>
-    <t>i</t>
   </si>
   <si>
     <t>Nb venues de la facture</t>
@@ -499,9 +499,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -525,6 +525,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -533,16 +555,45 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -557,35 +608,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -593,44 +615,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -644,7 +629,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -683,7 +683,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -695,7 +713,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -707,157 +851,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -910,6 +910,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -921,39 +930,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -975,6 +951,15 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -983,151 +968,166 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1459,7 +1459,7 @@
       <selection/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="G1" sqref="G$1:G$1048576"/>
+      <selection pane="bottomRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="5"/>
@@ -1819,10 +1819,10 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>7</v>
+        <v>38</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -1830,7 +1830,7 @@
         <v>53</v>
       </c>
       <c r="B18" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C18">
         <v>10</v>
@@ -1843,7 +1843,7 @@
         <v>7</v>
       </c>
       <c r="F18" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1851,7 +1851,7 @@
         <v>63</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C19">
         <v>8</v>
@@ -1864,7 +1864,7 @@
         <v>7</v>
       </c>
       <c r="F19" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1872,7 +1872,7 @@
         <v>71</v>
       </c>
       <c r="B20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C20">
         <v>8</v>
@@ -1885,7 +1885,7 @@
         <v>7</v>
       </c>
       <c r="F20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -1893,7 +1893,7 @@
         <v>79</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C21">
         <v>1</v>
@@ -1906,7 +1906,7 @@
         <v>7</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -1914,7 +1914,7 @@
         <v>80</v>
       </c>
       <c r="B22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C22">
         <v>1</v>
@@ -1927,7 +1927,7 @@
         <v>7</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="23" ht="21" spans="1:6">
@@ -1935,7 +1935,7 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C23">
         <v>1</v>
@@ -1948,7 +1948,7 @@
         <v>7</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="24" ht="21" spans="1:6">
@@ -1956,7 +1956,7 @@
         <v>82</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>1</v>
@@ -1969,7 +1969,7 @@
         <v>7</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1977,7 +1977,7 @@
         <v>83</v>
       </c>
       <c r="B25" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C25">
         <v>1</v>
@@ -1990,7 +1990,7 @@
         <v>7</v>
       </c>
       <c r="F25" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" ht="21" spans="1:6">
@@ -1998,7 +1998,7 @@
         <v>84</v>
       </c>
       <c r="B26" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C26">
         <v>1</v>
@@ -2011,7 +2011,7 @@
         <v>7</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -2019,7 +2019,7 @@
         <v>85</v>
       </c>
       <c r="B27" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C27">
         <v>1</v>
@@ -2032,7 +2032,7 @@
         <v>7</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="28" ht="21" spans="1:6">
@@ -2040,7 +2040,7 @@
         <v>86</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28">
         <v>1</v>
@@ -2053,7 +2053,7 @@
         <v>7</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -2061,7 +2061,7 @@
         <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C29">
         <v>1</v>
@@ -2074,7 +2074,7 @@
         <v>7</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -2082,7 +2082,7 @@
         <v>88</v>
       </c>
       <c r="B30" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C30">
         <v>1</v>
@@ -2095,7 +2095,7 @@
         <v>7</v>
       </c>
       <c r="F30" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="31" ht="21" spans="1:6">
@@ -2103,7 +2103,7 @@
         <v>89</v>
       </c>
       <c r="B31" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C31">
         <v>1</v>
@@ -2116,7 +2116,7 @@
         <v>7</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="32" ht="21" spans="1:6">
@@ -2124,7 +2124,7 @@
         <v>90</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C32">
         <v>1</v>
@@ -2137,7 +2137,7 @@
         <v>7</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="33" ht="21" spans="1:6">
@@ -2145,7 +2145,7 @@
         <v>91</v>
       </c>
       <c r="B33" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="C33">
         <v>1</v>
@@ -2158,7 +2158,7 @@
         <v>7</v>
       </c>
       <c r="F33" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="34" ht="21" spans="1:6">
@@ -2166,7 +2166,7 @@
         <v>92</v>
       </c>
       <c r="B34" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C34">
         <v>1</v>
@@ -2179,7 +2179,7 @@
         <v>7</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -2187,7 +2187,7 @@
         <v>93</v>
       </c>
       <c r="B35" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C35">
         <v>1</v>
@@ -2200,7 +2200,7 @@
         <v>7</v>
       </c>
       <c r="F35" s="1" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -2208,7 +2208,7 @@
         <v>94</v>
       </c>
       <c r="B36" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C36">
         <v>1</v>
@@ -2221,7 +2221,7 @@
         <v>7</v>
       </c>
       <c r="F36" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -2229,7 +2229,7 @@
         <v>95</v>
       </c>
       <c r="B37" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C37">
         <v>1</v>
@@ -2242,7 +2242,7 @@
         <v>7</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -2250,7 +2250,7 @@
         <v>96</v>
       </c>
       <c r="B38" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C38">
         <v>1</v>
@@ -2263,7 +2263,7 @@
         <v>7</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2271,7 +2271,7 @@
         <v>97</v>
       </c>
       <c r="B39" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C39">
         <v>1</v>
@@ -2284,7 +2284,7 @@
         <v>7</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2292,7 +2292,7 @@
         <v>98</v>
       </c>
       <c r="B40" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C40">
         <v>1</v>
@@ -2305,7 +2305,7 @@
         <v>7</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -2313,7 +2313,7 @@
         <v>99</v>
       </c>
       <c r="B41" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C41">
         <v>1</v>
@@ -2326,7 +2326,7 @@
         <v>7</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -2334,7 +2334,7 @@
         <v>100</v>
       </c>
       <c r="B42" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C42">
         <v>1</v>
@@ -2347,7 +2347,7 @@
         <v>7</v>
       </c>
       <c r="F42" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -2355,7 +2355,7 @@
         <v>101</v>
       </c>
       <c r="B43" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C43">
         <v>1</v>
@@ -2368,7 +2368,7 @@
         <v>7</v>
       </c>
       <c r="F43" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -2376,7 +2376,7 @@
         <v>102</v>
       </c>
       <c r="B44" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C44">
         <v>1</v>
@@ -2389,7 +2389,7 @@
         <v>7</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -2397,7 +2397,7 @@
         <v>103</v>
       </c>
       <c r="B45" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C45">
         <v>1</v>
@@ -2410,7 +2410,7 @@
         <v>7</v>
       </c>
       <c r="F45" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -2418,7 +2418,7 @@
         <v>104</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C46">
         <v>1</v>
@@ -2431,7 +2431,7 @@
         <v>7</v>
       </c>
       <c r="F46" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -2439,7 +2439,7 @@
         <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C47">
         <v>1</v>
@@ -2452,7 +2452,7 @@
         <v>7</v>
       </c>
       <c r="F47" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -2460,7 +2460,7 @@
         <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C48">
         <v>1</v>
@@ -2473,7 +2473,7 @@
         <v>7</v>
       </c>
       <c r="F48" s="2" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2481,7 +2481,7 @@
         <v>107</v>
       </c>
       <c r="B49" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C49">
         <v>2</v>
@@ -2494,7 +2494,7 @@
         <v>7</v>
       </c>
       <c r="F49" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -2502,7 +2502,7 @@
         <v>109</v>
       </c>
       <c r="B50" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C50">
         <v>2</v>
@@ -2515,7 +2515,7 @@
         <v>7</v>
       </c>
       <c r="F50" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -2523,7 +2523,7 @@
         <v>111</v>
       </c>
       <c r="B51" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C51">
         <v>1</v>
@@ -2536,7 +2536,7 @@
         <v>7</v>
       </c>
       <c r="F51" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -2544,7 +2544,7 @@
         <v>112</v>
       </c>
       <c r="B52" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C52">
         <v>1</v>
@@ -2557,7 +2557,7 @@
         <v>7</v>
       </c>
       <c r="F52" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -2565,7 +2565,7 @@
         <v>113</v>
       </c>
       <c r="B53" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C53">
         <v>2</v>
@@ -2578,7 +2578,7 @@
         <v>7</v>
       </c>
       <c r="F53" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -2586,7 +2586,7 @@
         <v>115</v>
       </c>
       <c r="B54" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C54">
         <v>2</v>
@@ -2599,7 +2599,7 @@
         <v>7</v>
       </c>
       <c r="F54" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -2607,7 +2607,7 @@
         <v>117</v>
       </c>
       <c r="B55" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C55">
         <v>1</v>
@@ -2620,7 +2620,7 @@
         <v>7</v>
       </c>
       <c r="F55" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -2628,7 +2628,7 @@
         <v>118</v>
       </c>
       <c r="B56" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C56">
         <v>1</v>
@@ -2641,7 +2641,7 @@
         <v>7</v>
       </c>
       <c r="F56" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -2649,7 +2649,7 @@
         <v>119</v>
       </c>
       <c r="B57" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C57">
         <v>1</v>
@@ -2662,7 +2662,7 @@
         <v>7</v>
       </c>
       <c r="F57" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -2670,7 +2670,7 @@
         <v>120</v>
       </c>
       <c r="B58" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C58">
         <v>4</v>
@@ -2680,7 +2680,7 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>120</v>
+        <v>38</v>
       </c>
       <c r="F58" t="s">
         <v>121</v>
